--- a/data/wang2020fecal/B data.xlsx
+++ b/data/wang2020fecal/B data.xlsx
@@ -35,7 +35,7 @@
     <t>days</t>
   </si>
   <si>
-    <t>ct value</t>
+    <t>ctvalue</t>
   </si>
   <si>
     <t>A</t>
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>

--- a/data/wang2020fecal/B data.xlsx
+++ b/data/wang2020fecal/B data.xlsx
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1321,7 +1321,7 @@
         <v>25.8977270222006</v>
       </c>
       <c r="C9">
-        <v>39.949734341586</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1420,7 +1420,7 @@
         <v>20.0245816706717</v>
       </c>
       <c r="C18">
-        <v>39.9374986221036</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>29.0724001851892</v>
       </c>
       <c r="C55">
-        <v>39.9563482440089</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>17.6255707762557</v>
       </c>
       <c r="C56">
-        <v>76.4583333333333</v>
+        <v>36.4583333333333</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>24.6575342465753</v>
       </c>
       <c r="C57">
-        <v>80.1041666666666</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/wang2020fecal/B data.xlsx
+++ b/data/wang2020fecal/B data.xlsx
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1835,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <v>17.6255707762557</v>
+        <v>16.90123452</v>
       </c>
       <c r="C56">
         <v>36.4583333333333</v>
@@ -1846,7 +1846,7 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>24.6575342465753</v>
+        <v>24.0575342465753</v>
       </c>
       <c r="C57">
         <v>40</v>

--- a/data/wang2020fecal/B data.xlsx
+++ b/data/wang2020fecal/B data.xlsx
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1285,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.8335721686986</v>
+        <v>16.1247490749026</v>
       </c>
       <c r="C6">
-        <v>33.8871006856412</v>
+        <v>33.9121338912133</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1296,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>19.9022244758482</v>
+        <v>20.1353181609306</v>
       </c>
       <c r="C7">
-        <v>28.3747437112811</v>
+        <v>28.1589958158995</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1307,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>22.6095152009524</v>
+        <v>23.1488983481268</v>
       </c>
       <c r="C8">
-        <v>29.213717233625</v>
+        <v>29.205020920502</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>25.8977270222006</v>
+        <v>25.9416644496577</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1670,10 +1670,10 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>28.8519367710928</v>
+        <v>29.1600962584951</v>
       </c>
       <c r="C41">
-        <v>34.1225556118962</v>
+        <v>33.8075313807531</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1681,10 +1681,10 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>30.7413082298992</v>
+        <v>31.0775872493772</v>
       </c>
       <c r="C42">
-        <v>32.668158469102</v>
+        <v>32.2384937238493</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1692,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>34.8915320002645</v>
+        <v>35.0362783273272</v>
       </c>
       <c r="C43">
-        <v>34.8643047686236</v>
+        <v>34.6443514644351</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1703,10 +1703,10 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>35.8296038272448</v>
+        <v>35.9973516821051</v>
       </c>
       <c r="C44">
-        <v>33.5120924182631</v>
+        <v>33.4937238493723</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>37.7454308957428</v>
+        <v>38.058504849203</v>
       </c>
       <c r="C45">
-        <v>34.5577503913225</v>
+        <v>34.3305439330544</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1725,10 +1725,10 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>40.5706695473886</v>
+        <v>38.8552978450673</v>
       </c>
       <c r="C46">
-        <v>31.5428029718468</v>
+        <v>34.0167364016736</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1736,10 +1736,10 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>41.6652703983774</v>
+        <v>41.2563184753428</v>
       </c>
       <c r="C47">
-        <v>29.9825833902863</v>
+        <v>31.4016736401673</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1747,10 +1747,10 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>43.7938446614784</v>
+        <v>42.061092703219</v>
       </c>
       <c r="C48">
-        <v>36.1328512533344</v>
+        <v>29.8326359832636</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1758,10 +1758,10 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>45.8617914857029</v>
+        <v>44.0889907369337</v>
       </c>
       <c r="C49">
-        <v>36.5538261425516</v>
+        <v>35.8995815899581</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1769,10 +1769,10 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>48.7575784298595</v>
+        <v>45.9945098797978</v>
       </c>
       <c r="C50">
-        <v>40.2056923653519</v>
+        <v>36.2133891213389</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1780,10 +1780,10 @@
         <v>11</v>
       </c>
       <c r="B51">
-        <v>49.8687140369055</v>
+        <v>48.8318378600624</v>
       </c>
       <c r="C51">
-        <v>40.2080072311999</v>
+        <v>39.9790794979079</v>
       </c>
     </row>
     <row r="52" spans="1:3">

--- a/data/wang2020fecal/B data.xlsx
+++ b/data/wang2020fecal/B data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuke\stat\shedding-hub\data\wang2020fecal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECE299A-E5DB-4ADC-92E3-769188BD2D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12860"/>
+    <workbookView xWindow="260" yWindow="260" windowWidth="12040" windowHeight="15230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,361 +80,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -436,251 +106,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -689,89 +117,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -782,7 +279,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -810,154 +307,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1207,22 +590,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.9615384615385" customWidth="1"/>
-    <col min="3" max="3" width="12.9230769230769"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1241,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>9.78405608589254</v>
+        <v>9.7840560858925407</v>
       </c>
       <c r="C2">
-        <v>32.2078308604687</v>
+        <v>32.207830860468697</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1255,7 +638,7 @@
         <v>14.1029343680416</v>
       </c>
       <c r="C3">
-        <v>35.3418285235565</v>
+        <v>35.341828523556501</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1263,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.0999360656099</v>
+        <v>18.099936065609899</v>
       </c>
       <c r="C4">
-        <v>38.0584889437597</v>
+        <v>38.058488943759698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1274,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.0267863048127</v>
+        <v>20.026786304812699</v>
       </c>
       <c r="C5">
-        <v>40.1458365484247</v>
+        <v>40.145836548424697</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1285,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.1247490749026</v>
+        <v>16.124749074902599</v>
       </c>
       <c r="C6">
-        <v>33.9121338912133</v>
+        <v>33.912133891213301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1296,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>20.1353181609306</v>
+        <v>20.135318160930598</v>
       </c>
       <c r="C7">
-        <v>28.1589958158995</v>
+        <v>28.158995815899502</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1307,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>23.1488983481268</v>
+        <v>23.148898348126799</v>
       </c>
       <c r="C8">
-        <v>29.205020920502</v>
+        <v>29.205020920502001</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1318,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>25.9416644496577</v>
+        <v>25.941664449657701</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1329,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>19.019268502392</v>
+        <v>19.019268502391999</v>
       </c>
       <c r="C10">
-        <v>34.9354042196697</v>
+        <v>34.935404219669699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1340,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>22.9589497122952</v>
+        <v>22.958949712295201</v>
       </c>
       <c r="C11">
-        <v>32.2352785555237</v>
+        <v>32.235278555523699</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1351,10 +734,10 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>29.6808792080954</v>
+        <v>29.680879208095401</v>
       </c>
       <c r="C12">
-        <v>37.4576159086399</v>
+        <v>37.457615908639902</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1362,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>32.0574748120549</v>
+        <v>32.057474812054899</v>
       </c>
       <c r="C13">
-        <v>37.0459004828148</v>
+        <v>37.045900482814801</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1373,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>33.6525276130426</v>
+        <v>33.652527613042601</v>
       </c>
       <c r="C14">
-        <v>37.7783901761502</v>
+        <v>37.778390176150197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1384,10 +767,10 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>35.9023567538967</v>
+        <v>35.902356753896697</v>
       </c>
       <c r="C15">
-        <v>40.3872439868603</v>
+        <v>40.387243986860298</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1395,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>7.80980621265901</v>
+        <v>7.8098062126590104</v>
       </c>
       <c r="C16">
-        <v>25.6412178398994</v>
+        <v>25.641217839899401</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1406,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>16.1444255825745</v>
+        <v>16.144425582574499</v>
       </c>
       <c r="C17">
-        <v>33.2627482969201</v>
+        <v>33.262748296920101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1417,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>20.0245816706717</v>
+        <v>20.024581670671701</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -1428,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>14.7720408298242</v>
+        <v>14.772040829824199</v>
       </c>
       <c r="C19">
-        <v>38.5723891620185</v>
+        <v>38.572389162018503</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1439,10 +822,10 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>17.9136444806984</v>
+        <v>17.913644480698402</v>
       </c>
       <c r="C20">
-        <v>35.4539341696245</v>
+        <v>35.453934169624503</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1453,7 +836,7 @@
         <v>21.8952137392799</v>
       </c>
       <c r="C21">
-        <v>36.7122291055799</v>
+        <v>36.712229105579901</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1461,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>27.9634692122842</v>
+        <v>27.963469212284199</v>
       </c>
       <c r="C22">
-        <v>40.162371304482</v>
+        <v>40.162371304482001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1472,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>17.8287660662713</v>
+        <v>17.828766066271299</v>
       </c>
       <c r="C23">
         <v>27.4329240062611</v>
@@ -1483,10 +866,10 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>20.0697766705615</v>
+        <v>20.069776670561499</v>
       </c>
       <c r="C24">
-        <v>29.2084261116867</v>
+        <v>29.208426111686698</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1494,10 +877,10 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>24.1527590996274</v>
+        <v>24.152759099627399</v>
       </c>
       <c r="C25">
-        <v>40.0502656584139</v>
+        <v>40.050265658413899</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1505,10 +888,10 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>12.5872483961286</v>
+        <v>12.587248396128601</v>
       </c>
       <c r="C26">
-        <v>27.1095041777816</v>
+        <v>27.109504177781599</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1516,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="B27">
-        <v>16.8984104587843</v>
+        <v>16.898410458784301</v>
       </c>
       <c r="C27">
-        <v>29.5143190987455</v>
+        <v>29.514319098745499</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1530,7 +913,7 @@
         <v>18.8197491126347</v>
       </c>
       <c r="C28">
-        <v>31.0808218876077</v>
+        <v>31.080821887607701</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1538,10 +921,10 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>24.7259639762781</v>
+        <v>24.725963976278098</v>
       </c>
       <c r="C29">
-        <v>34.2181265019069</v>
+        <v>34.218126501906902</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1549,10 +932,10 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>31.8601600564386</v>
+        <v>31.860160056438598</v>
       </c>
       <c r="C30">
-        <v>33.399656077074</v>
+        <v>33.399656077073999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1560,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>33.747326881104</v>
+        <v>33.747326881104001</v>
       </c>
       <c r="C31">
-        <v>31.7369210079587</v>
+        <v>31.736921007958699</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1571,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>36.8095637029035</v>
+        <v>36.809563702903503</v>
       </c>
       <c r="C32">
-        <v>36.1183006680041</v>
+        <v>36.118300668004103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1582,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>37.6451200423289</v>
+        <v>37.645120042328898</v>
       </c>
       <c r="C33">
-        <v>40.0783747437112</v>
+        <v>40.078374743711201</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1593,10 +976,10 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>39.6469278423245</v>
+        <v>39.646927842324502</v>
       </c>
       <c r="C34">
-        <v>34.2492118432945</v>
+        <v>34.249211843294503</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1604,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>40.9223086928724</v>
+        <v>40.922308692872399</v>
       </c>
       <c r="C35">
-        <v>34.7727022200665</v>
+        <v>34.772702220066499</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1615,10 +998,10 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>43.9944663683061</v>
+        <v>43.994466368306099</v>
       </c>
       <c r="C36">
-        <v>40.091602548557</v>
+        <v>40.091602548556999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1629,7 +1012,7 @@
         <v>14.9737648537225</v>
       </c>
       <c r="C37">
-        <v>27.6353094204016</v>
+        <v>27.635309420401601</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1637,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>17.0725765559205</v>
+        <v>17.072576555920499</v>
       </c>
       <c r="C38">
-        <v>30.9730152781145</v>
+        <v>30.973015278114499</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1648,10 +1031,10 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>19.1614674044842</v>
+        <v>19.161467404484199</v>
       </c>
       <c r="C39">
-        <v>33.3732004673824</v>
+        <v>33.373200467382397</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1662,7 +1045,7 @@
         <v>23.2014594678013</v>
       </c>
       <c r="C40">
-        <v>40.1524504508476</v>
+        <v>40.152450450847603</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1670,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>29.1600962584951</v>
+        <v>29.160096258495098</v>
       </c>
       <c r="C41">
-        <v>33.8075313807531</v>
+        <v>33.807531380753097</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1681,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>31.0775872493772</v>
+        <v>31.077587249377199</v>
       </c>
       <c r="C42">
-        <v>32.2384937238493</v>
+        <v>32.238493723849302</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1692,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>35.0362783273272</v>
+        <v>35.036278327327203</v>
       </c>
       <c r="C43">
-        <v>34.6443514644351</v>
+        <v>34.644351464435097</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1703,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>35.9973516821051</v>
+        <v>35.997351682105098</v>
       </c>
       <c r="C44">
-        <v>33.4937238493723</v>
+        <v>33.493723849372302</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1714,7 +1097,7 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>38.058504849203</v>
+        <v>38.058504849202997</v>
       </c>
       <c r="C45">
         <v>34.3305439330544</v>
@@ -1725,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="B46">
-        <v>38.8552978450673</v>
+        <v>38.855297845067298</v>
       </c>
       <c r="C46">
-        <v>34.0167364016736</v>
+        <v>34.016736401673597</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1736,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="B47">
-        <v>41.2563184753428</v>
+        <v>41.256318475342802</v>
       </c>
       <c r="C47">
-        <v>31.4016736401673</v>
+        <v>31.401673640167299</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1747,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>42.061092703219</v>
+        <v>42.061092703219003</v>
       </c>
       <c r="C48">
         <v>29.8326359832636</v>
@@ -1758,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="B49">
-        <v>44.0889907369337</v>
+        <v>44.088990736933702</v>
       </c>
       <c r="C49">
-        <v>35.8995815899581</v>
+        <v>35.899581589958103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1769,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>45.9945098797978</v>
+        <v>45.994509879797803</v>
       </c>
       <c r="C50">
-        <v>36.2133891213389</v>
+        <v>36.213389121338899</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1783,7 +1166,7 @@
         <v>48.8318378600624</v>
       </c>
       <c r="C51">
-        <v>39.9790794979079</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1791,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>20.8910028880707</v>
+        <v>20.891002888070702</v>
       </c>
       <c r="C52">
         <v>31.8143036663065</v>
@@ -1802,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>23.9322956855309</v>
+        <v>23.932295685530899</v>
       </c>
       <c r="C53">
-        <v>34.2164730263012</v>
+        <v>34.216473026301202</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1813,10 +1196,10 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>26.7707621420225</v>
+        <v>26.770762142022502</v>
       </c>
       <c r="C54">
-        <v>32.4515531647523</v>
+        <v>32.451553164752298</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1824,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="B55">
-        <v>29.0724001851892</v>
+        <v>29.072400185189199</v>
       </c>
       <c r="C55">
         <v>40</v>
@@ -1835,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B56">
-        <v>16.90123452</v>
+        <v>16.901234519999999</v>
       </c>
       <c r="C56">
         <v>36.4583333333333</v>
@@ -1846,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="B57">
-        <v>24.0575342465753</v>
+        <v>24.057534246575301</v>
       </c>
       <c r="C57">
         <v>40</v>
@@ -1854,6 +1237,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>